--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/S1U1U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/S1U1U3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3555101A-36B8-41D8-9070-CBEE8B0A5910}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C475D-007F-455A-910F-5F56CF596392}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1646,8 +1646,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
